--- a/input_data/admin_data/CRI/wage_CRI_2013.xlsx
+++ b/input_data/admin_data/CRI/wage_CRI_2013.xlsx
@@ -210,7 +210,7 @@
         <v>0.22844500839710236</v>
       </c>
       <c r="I5">
-        <v>4.6629714965820313</v>
+        <v>4.6629714965820312</v>
       </c>
     </row>
     <row r="6">
